--- a/Python Data Tutorials/openpyxl/example_writer.xlsx
+++ b/Python Data Tutorials/openpyxl/example_writer.xlsx
@@ -431,16 +431,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="11.45"/>
-    <col customWidth="1" max="2" min="2" width="11.45"/>
-    <col customWidth="1" max="3" min="3" width="11.45"/>
-    <col customWidth="1" max="4" min="4" width="11.45"/>
-    <col customWidth="1" max="5" min="5" width="11.45"/>
-    <col customWidth="1" max="6" min="6" width="11.45"/>
-    <col customWidth="1" max="7" min="7" width="11.45"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
@@ -483,20 +474,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="F2:F5" type="list">
-      <formula1>=Categories!B2:B5</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="G2:G5" type="list">
-      <formula1>=Categories!B2:B5</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="G2:G5" type="list">
-      <formula1>=Categories!B2:B5</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="G2:G5" type="list">
-      <formula1>=Categories!B2:B5</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
